--- a/natmiOut/OldD0/LR-pairs_lrc2p/Clec11a-Itga10.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Clec11a-Itga10.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.812763312841479</v>
+        <v>9.930652333333333</v>
       </c>
       <c r="H2">
-        <v>9.812763312841479</v>
+        <v>29.791957</v>
       </c>
       <c r="I2">
-        <v>0.968302560894522</v>
+        <v>0.9673539331442913</v>
       </c>
       <c r="J2">
-        <v>0.968302560894522</v>
+        <v>0.9673539331442912</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.365956663166888</v>
+        <v>0.4043423333333334</v>
       </c>
       <c r="N2">
-        <v>0.365956663166888</v>
+        <v>1.213027</v>
       </c>
       <c r="O2">
-        <v>0.08007133668978839</v>
+        <v>0.08238992852068679</v>
       </c>
       <c r="P2">
-        <v>0.08007133668978839</v>
+        <v>0.08238992852068679</v>
       </c>
       <c r="Q2">
-        <v>3.591046118413925</v>
+        <v>4.015383135982111</v>
       </c>
       <c r="R2">
-        <v>3.591046118413925</v>
+        <v>36.138448223839</v>
       </c>
       <c r="S2">
-        <v>0.0775332803709696</v>
+        <v>0.07970022140596339</v>
       </c>
       <c r="T2">
-        <v>0.0775332803709696</v>
+        <v>0.07970022140596338</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.812763312841479</v>
+        <v>9.930652333333333</v>
       </c>
       <c r="H3">
-        <v>9.812763312841479</v>
+        <v>29.791957</v>
       </c>
       <c r="I3">
-        <v>0.968302560894522</v>
+        <v>0.9673539331442913</v>
       </c>
       <c r="J3">
-        <v>0.968302560894522</v>
+        <v>0.9673539331442912</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.2334533452142</v>
+        <v>1.358024333333333</v>
       </c>
       <c r="N3">
-        <v>1.2334533452142</v>
+        <v>4.074073</v>
       </c>
       <c r="O3">
-        <v>0.2698796552605802</v>
+        <v>0.276714849099039</v>
       </c>
       <c r="P3">
-        <v>0.2698796552605802</v>
+        <v>0.276714849099039</v>
       </c>
       <c r="Q3">
-        <v>12.1035857340195</v>
+        <v>13.48606751454011</v>
       </c>
       <c r="R3">
-        <v>12.1035857340195</v>
+        <v>121.374607630861</v>
       </c>
       <c r="S3">
-        <v>0.2613251613221506</v>
+        <v>0.2676811976353844</v>
       </c>
       <c r="T3">
-        <v>0.2613251613221506</v>
+        <v>0.2676811976353844</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.812763312841479</v>
+        <v>9.930652333333333</v>
       </c>
       <c r="H4">
-        <v>9.812763312841479</v>
+        <v>29.791957</v>
       </c>
       <c r="I4">
-        <v>0.968302560894522</v>
+        <v>0.9673539331442913</v>
       </c>
       <c r="J4">
-        <v>0.968302560894522</v>
+        <v>0.9673539331442912</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.9709728314193</v>
+        <v>3.145300333333333</v>
       </c>
       <c r="N4">
-        <v>2.9709728314193</v>
+        <v>9.435900999999999</v>
       </c>
       <c r="O4">
-        <v>0.6500490080496315</v>
+        <v>0.6408952223802742</v>
       </c>
       <c r="P4">
-        <v>0.6500490080496315</v>
+        <v>0.6408952223802742</v>
       </c>
       <c r="Q4">
-        <v>29.15345320360008</v>
+        <v>31.23488409425077</v>
       </c>
       <c r="R4">
-        <v>29.15345320360008</v>
+        <v>281.113956848257</v>
       </c>
       <c r="S4">
-        <v>0.629444119201402</v>
+        <v>0.6199725141029435</v>
       </c>
       <c r="T4">
-        <v>0.629444119201402</v>
+        <v>0.6199725141029434</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.32122136213078</v>
+        <v>0.3351376666666666</v>
       </c>
       <c r="H5">
-        <v>0.32122136213078</v>
+        <v>1.005413</v>
       </c>
       <c r="I5">
-        <v>0.03169743910547795</v>
+        <v>0.03264606685570878</v>
       </c>
       <c r="J5">
-        <v>0.03169743910547795</v>
+        <v>0.03264606685570878</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.365956663166888</v>
+        <v>0.4043423333333334</v>
       </c>
       <c r="N5">
-        <v>0.365956663166888</v>
+        <v>1.213027</v>
       </c>
       <c r="O5">
-        <v>0.08007133668978839</v>
+        <v>0.08238992852068679</v>
       </c>
       <c r="P5">
-        <v>0.08007133668978839</v>
+        <v>0.08238992852068679</v>
       </c>
       <c r="Q5">
-        <v>0.1175530978233028</v>
+        <v>0.1355103461278889</v>
       </c>
       <c r="R5">
-        <v>0.1175530978233028</v>
+        <v>1.219593115151</v>
       </c>
       <c r="S5">
-        <v>0.00253805631881879</v>
+        <v>0.002689707114723409</v>
       </c>
       <c r="T5">
-        <v>0.00253805631881879</v>
+        <v>0.002689707114723408</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.32122136213078</v>
+        <v>0.3351376666666666</v>
       </c>
       <c r="H6">
-        <v>0.32122136213078</v>
+        <v>1.005413</v>
       </c>
       <c r="I6">
-        <v>0.03169743910547795</v>
+        <v>0.03264606685570878</v>
       </c>
       <c r="J6">
-        <v>0.03169743910547795</v>
+        <v>0.03264606685570878</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.2334533452142</v>
+        <v>1.358024333333333</v>
       </c>
       <c r="N6">
-        <v>1.2334533452142</v>
+        <v>4.074073</v>
       </c>
       <c r="O6">
-        <v>0.2698796552605802</v>
+        <v>0.276714849099039</v>
       </c>
       <c r="P6">
-        <v>0.2698796552605802</v>
+        <v>0.276714849099039</v>
       </c>
       <c r="Q6">
-        <v>0.3962115636744726</v>
+        <v>0.4551251063498889</v>
       </c>
       <c r="R6">
-        <v>0.3962115636744726</v>
+        <v>4.096125957149</v>
       </c>
       <c r="S6">
-        <v>0.008554493938429622</v>
+        <v>0.009033651463654596</v>
       </c>
       <c r="T6">
-        <v>0.008554493938429622</v>
+        <v>0.009033651463654592</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.32122136213078</v>
+        <v>0.3351376666666666</v>
       </c>
       <c r="H7">
-        <v>0.32122136213078</v>
+        <v>1.005413</v>
       </c>
       <c r="I7">
-        <v>0.03169743910547795</v>
+        <v>0.03264606685570878</v>
       </c>
       <c r="J7">
-        <v>0.03169743910547795</v>
+        <v>0.03264606685570878</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.9709728314193</v>
+        <v>3.145300333333333</v>
       </c>
       <c r="N7">
-        <v>2.9709728314193</v>
+        <v>9.435900999999999</v>
       </c>
       <c r="O7">
-        <v>0.6500490080496315</v>
+        <v>0.6408952223802742</v>
       </c>
       <c r="P7">
-        <v>0.6500490080496315</v>
+        <v>0.6408952223802742</v>
       </c>
       <c r="Q7">
-        <v>0.9543399397620477</v>
+        <v>1.054108614679222</v>
       </c>
       <c r="R7">
-        <v>0.9543399397620477</v>
+        <v>9.486977532112999</v>
       </c>
       <c r="S7">
-        <v>0.02060488884822954</v>
+        <v>0.02092270827733078</v>
       </c>
       <c r="T7">
-        <v>0.02060488884822954</v>
+        <v>0.02092270827733077</v>
       </c>
     </row>
   </sheetData>
